--- a/Entregaveis/1.RepositorioSemantico/Exames/CargaOCL/ results-specimen-type-uv-ips.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/CargaOCL/ results-specimen-type-uv-ips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Exames/CargaOCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38556DE2-AFA0-BD4B-AFF3-780B9B096DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13B05F9-5596-2344-A3D4-B87D0D8B3A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{0B35E72D-6D6E-9A45-A828-FED37E920600}"/>
+    <workbookView xWindow="1960" yWindow="2420" windowWidth="27240" windowHeight="16440" xr2:uid="{0B35E72D-6D6E-9A45-A828-FED37E920600}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -822,7 +822,7 @@
   <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
